--- a/lab2/final_alldays.xlsx
+++ b/lab2/final_alldays.xlsx
@@ -9580,73 +9580,73 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.02596153846153846</v>
+        <v>0.02435622317596567</v>
       </c>
       <c r="C4">
-        <v>0.008173076923076924</v>
+        <v>0.007939914163090129</v>
       </c>
       <c r="D4">
-        <v>0.008461538461538461</v>
+        <v>0.009334763948497854</v>
       </c>
       <c r="E4">
-        <v>0.002307692307692308</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="F4">
-        <v>0.006923076923076923</v>
+        <v>0.007510729613733906</v>
       </c>
       <c r="G4">
-        <v>0.008846153846153846</v>
+        <v>0.009656652360515022</v>
       </c>
       <c r="H4">
-        <v>0.009519230769230769</v>
+        <v>0.009763948497854077</v>
       </c>
       <c r="I4">
-        <v>0.007980769230769231</v>
+        <v>0.008369098712446352</v>
       </c>
       <c r="J4">
-        <v>0.005</v>
+        <v>0.00536480686695279</v>
       </c>
       <c r="K4">
-        <v>0.004615384615384616</v>
+        <v>0.005042918454935623</v>
       </c>
       <c r="L4">
-        <v>0.002596153846153846</v>
+        <v>0.002682403433476395</v>
       </c>
       <c r="M4">
-        <v>0.004038461538461539</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="N4">
-        <v>0.005576923076923077</v>
+        <v>0.005793991416309013</v>
       </c>
       <c r="O4">
-        <v>0.005673076923076923</v>
+        <v>0.006223175965665236</v>
       </c>
       <c r="P4">
-        <v>0.003269230769230769</v>
+        <v>0.003648068669527897</v>
       </c>
       <c r="Q4">
-        <v>0.004326923076923077</v>
+        <v>0.004506437768240343</v>
       </c>
       <c r="R4">
-        <v>0.005865384615384615</v>
+        <v>0.00611587982832618</v>
       </c>
       <c r="S4">
-        <v>0.004519230769230769</v>
+        <v>0.005042918454935623</v>
       </c>
       <c r="T4">
-        <v>0.003076923076923077</v>
+        <v>0.00332618025751073</v>
       </c>
       <c r="U4">
-        <v>0.001923076923076923</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="V4">
-        <v>0.003461538461538462</v>
+        <v>0.003755364806866953</v>
       </c>
       <c r="W4">
-        <v>0.003076923076923077</v>
+        <v>0.003218884120171674</v>
       </c>
       <c r="X4">
-        <v>0.003173076923076923</v>
+        <v>0.003433476394849785</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -9654,73 +9654,73 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.007211538461538462</v>
+        <v>0.005901287553648069</v>
       </c>
       <c r="C5">
-        <v>0.007884615384615384</v>
+        <v>0.007618025751072961</v>
       </c>
       <c r="D5">
-        <v>0.002403846153846154</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="E5">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="F5">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="G5">
-        <v>0.001153846153846154</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="H5">
-        <v>0.001538461538461538</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="I5">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="J5">
-        <v>0.004038461538461539</v>
+        <v>0.003648068669527897</v>
       </c>
       <c r="K5">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="L5">
-        <v>0.00125</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="M5">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="N5">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="O5">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="P5">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="Q5">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="R5">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="S5">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="T5">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="U5">
-        <v>0.000576923076923077</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="V5">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="W5">
-        <v>0.002019230769230769</v>
+        <v>0.00203862660944206</v>
       </c>
       <c r="X5">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9728,73 +9728,73 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.007788461538461538</v>
+        <v>0.006974248927038627</v>
       </c>
       <c r="C6">
-        <v>0.002884615384615385</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="D6">
-        <v>0.01105769230769231</v>
+        <v>0.01190987124463519</v>
       </c>
       <c r="E6">
-        <v>0.002115384615384615</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="F6">
-        <v>0.003846153846153846</v>
+        <v>0.003969957081545065</v>
       </c>
       <c r="G6">
-        <v>0.002211538461538461</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="H6">
-        <v>0.002019230769230769</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="I6">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="J6">
-        <v>0.002019230769230769</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="K6">
-        <v>0.0025</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="L6">
-        <v>0.003076923076923077</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="M6">
-        <v>0.001538461538461538</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="N6">
-        <v>0.002692307692307692</v>
+        <v>0.002896995708154506</v>
       </c>
       <c r="O6">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="P6">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="Q6">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="R6">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="S6">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="T6">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="U6">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="V6">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="W6">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="X6">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -9802,73 +9802,73 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.002307692307692308</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="C7">
-        <v>0.001057692307692308</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="D7">
-        <v>0.002692307692307692</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="E7">
-        <v>0.007403846153846154</v>
+        <v>0.006223175965665236</v>
       </c>
       <c r="F7">
-        <v>0.002980769230769231</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="G7">
-        <v>0.001634615384615385</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="H7">
-        <v>0.0007692307692307692</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="I7">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="J7">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="K7">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="L7">
-        <v>0.001826923076923077</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="M7">
-        <v>0.001730769230769231</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="N7">
-        <v>0.002980769230769231</v>
+        <v>0.003004291845493562</v>
       </c>
       <c r="O7">
-        <v>0.001346153846153846</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="P7">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="Q7">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="R7">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="S7">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="T7">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="W7">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X7">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -9876,73 +9876,73 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.005288461538461539</v>
+        <v>0.003862660944206008</v>
       </c>
       <c r="C8">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="D8">
-        <v>0.003846153846153846</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="E8">
-        <v>0.004326923076923077</v>
+        <v>0.00407725321888412</v>
       </c>
       <c r="F8">
-        <v>0.01096153846153846</v>
+        <v>0.01062231759656652</v>
       </c>
       <c r="G8">
-        <v>0.004615384615384616</v>
+        <v>0.004613733905579399</v>
       </c>
       <c r="H8">
-        <v>0.002307692307692308</v>
+        <v>0.002253218884120172</v>
       </c>
       <c r="I8">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="J8">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="K8">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="L8">
-        <v>0.001538461538461538</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="M8">
-        <v>0.001826923076923077</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="N8">
-        <v>0.003269230769230769</v>
+        <v>0.00332618025751073</v>
       </c>
       <c r="O8">
-        <v>0.002403846153846154</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="P8">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="Q8">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="R8">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="S8">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="T8">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="U8">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="V8">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="W8">
-        <v>0.000673076923076923</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="X8">
-        <v>0.001442307692307692</v>
+        <v>0.001609442060085837</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -9950,73 +9950,73 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.0075</v>
+        <v>0.00686695278969957</v>
       </c>
       <c r="C9">
-        <v>0.001442307692307692</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="D9">
-        <v>0.002403846153846154</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="E9">
-        <v>0.001346153846153846</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="F9">
-        <v>0.004615384615384616</v>
+        <v>0.004399141630901287</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>0.01899141630901287</v>
       </c>
       <c r="H9">
-        <v>0.003461538461538462</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="I9">
-        <v>0.002115384615384615</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="J9">
-        <v>0.002884615384615385</v>
+        <v>0.002682403433476395</v>
       </c>
       <c r="K9">
-        <v>0.001538461538461538</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="L9">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="M9">
-        <v>0.001923076923076923</v>
+        <v>0.00203862660944206</v>
       </c>
       <c r="N9">
-        <v>0.0025</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="O9">
-        <v>0.005</v>
+        <v>0.004935622317596567</v>
       </c>
       <c r="P9">
-        <v>0.001634615384615385</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="Q9">
-        <v>0.003269230769230769</v>
+        <v>0.003540772532188841</v>
       </c>
       <c r="R9">
-        <v>0.004519230769230769</v>
+        <v>0.004828326180257511</v>
       </c>
       <c r="S9">
-        <v>0.001346153846153846</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="T9">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="U9">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="V9">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="W9">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="X9">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -10024,73 +10024,73 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.006538461538461538</v>
+        <v>0.00536480686695279</v>
       </c>
       <c r="C10">
-        <v>0.001634615384615385</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="D10">
-        <v>0.002115384615384615</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="E10">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="F10">
-        <v>0.001538461538461538</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="G10">
-        <v>0.003461538461538462</v>
+        <v>0.003648068669527897</v>
       </c>
       <c r="H10">
-        <v>0.009807692307692307</v>
+        <v>0.009442060085836909</v>
       </c>
       <c r="I10">
-        <v>0.002692307692307692</v>
+        <v>0.002682403433476395</v>
       </c>
       <c r="J10">
-        <v>0.001346153846153846</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="K10">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="L10">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="M10">
-        <v>0.001346153846153846</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="N10">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="O10">
-        <v>0.001730769230769231</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="P10">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="Q10">
-        <v>0.002115384615384615</v>
+        <v>0.002253218884120172</v>
       </c>
       <c r="R10">
-        <v>0.003365384615384616</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="S10">
-        <v>0.005480769230769231</v>
+        <v>0.005686695278969957</v>
       </c>
       <c r="T10">
-        <v>0.002596153846153846</v>
+        <v>0.002682403433476395</v>
       </c>
       <c r="U10">
-        <v>0.001153846153846154</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="V10">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="W10">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="X10">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -10098,73 +10098,73 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.006634615384615385</v>
+        <v>0.006008583690987125</v>
       </c>
       <c r="C11">
-        <v>0.0009615384615384616</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="D11">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="E11">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="F11">
-        <v>0.0009615384615384616</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="G11">
-        <v>0.002019230769230769</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="H11">
-        <v>0.003365384615384616</v>
+        <v>0.003648068669527897</v>
       </c>
       <c r="I11">
-        <v>0.009519230769230769</v>
+        <v>0.009442060085836909</v>
       </c>
       <c r="J11">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="K11">
-        <v>0.0008653846153846154</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="L11">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="M11">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="N11">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="O11">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="P11">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="Q11">
-        <v>0.00125</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="R11">
-        <v>0.001538461538461538</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="S11">
-        <v>0.001442307692307692</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="T11">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="U11">
-        <v>0.001826923076923077</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="V11">
-        <v>0.002403846153846154</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="W11">
-        <v>0.001346153846153846</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="X11">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -10172,73 +10172,73 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.005192307692307692</v>
+        <v>0.004399141630901287</v>
       </c>
       <c r="C12">
-        <v>0.004038461538461539</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="D12">
-        <v>0.001826923076923077</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="E12">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="F12">
-        <v>0.001442307692307692</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="G12">
-        <v>0.002596153846153846</v>
+        <v>0.002896995708154506</v>
       </c>
       <c r="H12">
-        <v>0.001442307692307692</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="I12">
-        <v>0.00125</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="J12">
-        <v>0.01201923076923077</v>
+        <v>0.01201716738197425</v>
       </c>
       <c r="K12">
-        <v>0.002884615384615385</v>
+        <v>0.003111587982832618</v>
       </c>
       <c r="L12">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="M12">
-        <v>0.002115384615384615</v>
+        <v>0.002253218884120172</v>
       </c>
       <c r="N12">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="O12">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="P12">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="Q12">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="R12">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="S12">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="T12">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="U12">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="V12">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="W12">
-        <v>0.000673076923076923</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="X12">
-        <v>0.002980769230769231</v>
+        <v>0.00332618025751073</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -10246,73 +10246,73 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.003942307692307692</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="C13">
-        <v>0.001153846153846154</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="D13">
-        <v>0.002403846153846154</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="E13">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="F13">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="G13">
-        <v>0.001346153846153846</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="H13">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="I13">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="J13">
-        <v>0.003173076923076923</v>
+        <v>0.003004291845493562</v>
       </c>
       <c r="K13">
-        <v>0.01</v>
+        <v>0.009763948497854077</v>
       </c>
       <c r="L13">
-        <v>0.002596153846153846</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="M13">
-        <v>0.002980769230769231</v>
+        <v>0.002896995708154506</v>
       </c>
       <c r="N13">
-        <v>0.001346153846153846</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="O13">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="P13">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="Q13">
-        <v>0.00125</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="R13">
-        <v>0.001346153846153846</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="S13">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="V13">
-        <v>0.000576923076923077</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="W13">
-        <v>0.0002884615384615385</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="X13">
-        <v>0.005288461538461539</v>
+        <v>0.005472103004291845</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -10320,61 +10320,61 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.002403846153846154</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="C14">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="D14">
-        <v>0.002692307692307692</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="E14">
-        <v>0.002596153846153846</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="F14">
-        <v>0.001826923076923077</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="G14">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="H14">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="I14">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="J14">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="K14">
-        <v>0.002019230769230769</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="L14">
-        <v>0.008076923076923077</v>
+        <v>0.007510729613733906</v>
       </c>
       <c r="M14">
-        <v>0.004615384615384616</v>
+        <v>0.004935622317596567</v>
       </c>
       <c r="N14">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="O14">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="P14">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="Q14">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="R14">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="S14">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="T14">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -10383,10 +10383,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0.0004807692307692308</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X14">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -10394,73 +10394,73 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.003557692307692308</v>
+        <v>0.003111587982832618</v>
       </c>
       <c r="C15">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="D15">
-        <v>0.001634615384615385</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="E15">
-        <v>0.001826923076923077</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="F15">
-        <v>0.001442307692307692</v>
+        <v>0.001609442060085837</v>
       </c>
       <c r="G15">
-        <v>0.001826923076923077</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="H15">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="I15">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="J15">
-        <v>0.002211538461538461</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="K15">
-        <v>0.002596153846153846</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="L15">
-        <v>0.003461538461538462</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="M15">
-        <v>0.009903846153846154</v>
+        <v>0.009442060085836909</v>
       </c>
       <c r="N15">
-        <v>0.001923076923076923</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="O15">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="P15">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="Q15">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="R15">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="S15">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="T15">
-        <v>0.0004807692307692308</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="U15">
-        <v>9.615384615384615e-05</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="W15">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X15">
-        <v>0.003076923076923077</v>
+        <v>0.003433476394849785</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -10468,73 +10468,73 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0.004711538461538461</v>
+        <v>0.004506437768240343</v>
       </c>
       <c r="C16">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="D16">
-        <v>0.0025</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="E16">
-        <v>0.002692307692307692</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="F16">
-        <v>0.004230769230769231</v>
+        <v>0.004399141630901287</v>
       </c>
       <c r="G16">
-        <v>0.0025</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="H16">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="I16">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="J16">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="K16">
-        <v>0.001346153846153846</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="L16">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="M16">
-        <v>0.002211538461538461</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="N16">
-        <v>0.01326923076923077</v>
+        <v>0.01319742489270386</v>
       </c>
       <c r="O16">
-        <v>0.005865384615384615</v>
+        <v>0.005579399141630901</v>
       </c>
       <c r="P16">
-        <v>0.0009615384615384616</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="Q16">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="R16">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="S16">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="T16">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="U16">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="V16">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="W16">
-        <v>0.0003846153846153846</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X16">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -10542,73 +10542,73 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>0.003846153846153846</v>
+        <v>0.003111587982832618</v>
       </c>
       <c r="C17">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="D17">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="E17">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="F17">
-        <v>0.002211538461538461</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="G17">
-        <v>0.005096153846153846</v>
+        <v>0.005150214592274678</v>
       </c>
       <c r="H17">
-        <v>0.001730769230769231</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="I17">
-        <v>0.0007692307692307692</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="J17">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="K17">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="L17">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="M17">
-        <v>0.001057692307692308</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="N17">
-        <v>0.006346153846153846</v>
+        <v>0.006652360515021459</v>
       </c>
       <c r="O17">
-        <v>0.01096153846153846</v>
+        <v>0.01072961373390558</v>
       </c>
       <c r="P17">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="Q17">
-        <v>0.001634615384615385</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="R17">
-        <v>0.001730769230769231</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="S17">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="T17">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="U17">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="V17">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="W17">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="X17">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -10616,73 +10616,73 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.002211538461538461</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="C18">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="D18">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="E18">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="F18">
-        <v>0.0007692307692307692</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="G18">
-        <v>0.00125</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="H18">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="I18">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="J18">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="K18">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="L18">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="M18">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="N18">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="O18">
-        <v>0.001346153846153846</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="P18">
-        <v>0.006442307692307692</v>
+        <v>0.006437768240343348</v>
       </c>
       <c r="Q18">
-        <v>0.00375</v>
+        <v>0.003755364806866953</v>
       </c>
       <c r="R18">
-        <v>0.001923076923076923</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="S18">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="T18">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="U18">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="V18">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="W18">
-        <v>0.0002884615384615385</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X18">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -10690,73 +10690,73 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>0.003269230769230769</v>
+        <v>0.003111587982832618</v>
       </c>
       <c r="C19">
-        <v>0.0003846153846153846</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="D19">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="E19">
-        <v>0.000576923076923077</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="F19">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="G19">
-        <v>0.002596153846153846</v>
+        <v>0.002682403433476395</v>
       </c>
       <c r="H19">
-        <v>0.001923076923076923</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="I19">
-        <v>0.00125</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="J19">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="K19">
-        <v>0.001153846153846154</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="L19">
-        <v>0.000673076923076923</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="M19">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="N19">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="O19">
-        <v>0.00125</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="P19">
-        <v>0.003461538461538462</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="Q19">
-        <v>0.007692307692307693</v>
+        <v>0.00740343347639485</v>
       </c>
       <c r="R19">
-        <v>0.004711538461538461</v>
+        <v>0.004613733905579399</v>
       </c>
       <c r="S19">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="T19">
-        <v>0.001634615384615385</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="U19">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="V19">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="W19">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="X19">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -10764,73 +10764,73 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>0.004519230769230769</v>
+        <v>0.003755364806866953</v>
       </c>
       <c r="C20">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="D20">
-        <v>0.001153846153846154</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="E20">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="F20">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="G20">
-        <v>0.004038461538461539</v>
+        <v>0.003969957081545065</v>
       </c>
       <c r="H20">
-        <v>0.002211538461538461</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="I20">
-        <v>0.00125</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="J20">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="K20">
-        <v>0.001057692307692308</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="L20">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="M20">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="N20">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="O20">
-        <v>0.002115384615384615</v>
+        <v>0.002253218884120172</v>
       </c>
       <c r="P20">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="Q20">
-        <v>0.003942307692307692</v>
+        <v>0.00407725321888412</v>
       </c>
       <c r="R20">
-        <v>0.01923076923076923</v>
+        <v>0.01899141630901287</v>
       </c>
       <c r="S20">
-        <v>0.001538461538461538</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="T20">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="U20">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="V20">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="W20">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="X20">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -10838,73 +10838,73 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>0.003653846153846154</v>
+        <v>0.003433476394849785</v>
       </c>
       <c r="C21">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="D21">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="E21">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="F21">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="G21">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="H21">
-        <v>0.003461538461538462</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="I21">
-        <v>0.001153846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="J21">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="K21">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="L21">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="M21">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="N21">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="O21">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="P21">
-        <v>0.0004807692307692308</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="Q21">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="R21">
-        <v>0.001346153846153846</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="S21">
-        <v>0.01173076923076923</v>
+        <v>0.0111587982832618</v>
       </c>
       <c r="T21">
-        <v>0.002980769230769231</v>
+        <v>0.002789699570815451</v>
       </c>
       <c r="U21">
-        <v>0.002403846153846154</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="V21">
-        <v>0.00125</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="W21">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="X21">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -10912,73 +10912,73 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>0.0025</v>
+        <v>0.00203862660944206</v>
       </c>
       <c r="C22">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="D22">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="E22">
-        <v>0.0002884615384615385</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="F22">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="G22">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="H22">
-        <v>0.002884615384615385</v>
+        <v>0.002575107296137339</v>
       </c>
       <c r="I22">
-        <v>0.0007692307692307692</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="J22">
-        <v>0.0001923076923076923</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="M22">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="N22">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="O22">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="P22">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="Q22">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="R22">
-        <v>0.001634615384615385</v>
+        <v>0.001824034334763949</v>
       </c>
       <c r="S22">
-        <v>0.004230769230769231</v>
+        <v>0.004506437768240343</v>
       </c>
       <c r="T22">
-        <v>0.007019230769230769</v>
+        <v>0.006223175965665236</v>
       </c>
       <c r="U22">
-        <v>0.001346153846153846</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="V22">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="W22">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="X22">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -10986,73 +10986,73 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>0.001538461538461538</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="C23">
-        <v>0.000576923076923077</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="D23">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="G23">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="H23">
-        <v>0.001153846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="I23">
-        <v>0.001538461538461538</v>
+        <v>0.001394849785407725</v>
       </c>
       <c r="J23">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="K23">
-        <v>0.0001923076923076923</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="L23">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="M23">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="N23">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="Q23">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="R23">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="S23">
-        <v>0.002211538461538461</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="T23">
-        <v>0.000673076923076923</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="U23">
-        <v>0.003942307692307692</v>
+        <v>0.003862660944206008</v>
       </c>
       <c r="V23">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="W23">
-        <v>0.0003846153846153846</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="X23">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -11060,73 +11060,73 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>0.002596153846153846</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="C24">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="D24">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="E24">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="F24">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="G24">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="H24">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="I24">
-        <v>0.001923076923076923</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="J24">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="K24">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="N24">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="O24">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.0002884615384615385</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="R24">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="S24">
-        <v>0.001057692307692308</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="T24">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="U24">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="V24">
-        <v>0.004807692307692308</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="W24">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="X24">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -11134,73 +11134,73 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>0.002596153846153846</v>
+        <v>0.002360515021459227</v>
       </c>
       <c r="C25">
-        <v>0.0025</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="D25">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="E25">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="F25">
-        <v>0.000673076923076923</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="G25">
-        <v>0.0009615384615384616</v>
+        <v>0.001072961373390558</v>
       </c>
       <c r="H25">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="I25">
-        <v>0.00125</v>
+        <v>0.00128755364806867</v>
       </c>
       <c r="J25">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="K25">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="L25">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="M25">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="N25">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="O25">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="P25">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="Q25">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="R25">
-        <v>9.615384615384615e-05</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="T25">
-        <v>9.615384615384615e-05</v>
+        <v>0.0001072961373390558</v>
       </c>
       <c r="U25">
-        <v>0.0002884615384615385</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="V25">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="W25">
-        <v>0.005192307692307692</v>
+        <v>0.005150214592274678</v>
       </c>
       <c r="X25">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -11208,73 +11208,73 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>0.002596153846153846</v>
+        <v>0.002467811158798283</v>
       </c>
       <c r="C26">
-        <v>0.001057692307692308</v>
+        <v>0.001180257510729614</v>
       </c>
       <c r="D26">
-        <v>0.0007692307692307692</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="E26">
-        <v>0.0008653846153846154</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="F26">
-        <v>0.001442307692307692</v>
+        <v>0.001502145922746781</v>
       </c>
       <c r="G26">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="H26">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="I26">
-        <v>0.000576923076923077</v>
+        <v>0.0006437768240343348</v>
       </c>
       <c r="J26">
-        <v>0.001826923076923077</v>
+        <v>0.001931330472103004</v>
       </c>
       <c r="K26">
-        <v>0.004519230769230769</v>
+        <v>0.004399141630901287</v>
       </c>
       <c r="L26">
-        <v>0.0009615384615384616</v>
+        <v>0.0007510729613733906</v>
       </c>
       <c r="M26">
-        <v>0.002788461538461538</v>
+        <v>0.003004291845493562</v>
       </c>
       <c r="N26">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="O26">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="P26">
-        <v>0.0001923076923076923</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="Q26">
-        <v>0.0007692307692307692</v>
+        <v>0.0008583690987124463</v>
       </c>
       <c r="R26">
-        <v>0.0008653846153846154</v>
+        <v>0.0009656652360515021</v>
       </c>
       <c r="S26">
-        <v>0.0003846153846153846</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="T26">
-        <v>0.0002884615384615385</v>
+        <v>0.0002145922746781116</v>
       </c>
       <c r="U26">
-        <v>0.0004807692307692308</v>
+        <v>0.000536480686695279</v>
       </c>
       <c r="V26">
-        <v>0.0003846153846153846</v>
+        <v>0.0003218884120171674</v>
       </c>
       <c r="W26">
-        <v>0.0007692307692307692</v>
+        <v>0.0004291845493562232</v>
       </c>
       <c r="X26">
-        <v>0.01019230769230769</v>
+        <v>0.009442060085836909</v>
       </c>
     </row>
   </sheetData>
